--- a/Bao Cao/database.xlsx
+++ b/Bao Cao/database.xlsx
@@ -8,14 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Data Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Database" sheetId="2" r:id="rId2"/>
+    <sheet name="BAOCAO Database" sheetId="7" r:id="rId2"/>
+    <sheet name="HOADON Database" sheetId="6" r:id="rId3"/>
+    <sheet name="PHIEUKHAM Database" sheetId="5" r:id="rId4"/>
+    <sheet name="BENHNHAN Database" sheetId="2" r:id="rId5"/>
+    <sheet name="THUOC Database" sheetId="3" r:id="rId6"/>
+    <sheet name="DONTHUOC Database" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>BENHNHAN</t>
   </si>
@@ -96,6 +101,51 @@
   </si>
   <si>
     <t>DoanhThu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Hong An </t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nguyen Duy Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nam </t>
+  </si>
+  <si>
+    <t>Nguyen Thanh Duy</t>
+  </si>
+  <si>
+    <t>TenThuoc</t>
+  </si>
+  <si>
+    <t>Paradon</t>
+  </si>
+  <si>
+    <t>Vien</t>
+  </si>
+  <si>
+    <t>Ospamox</t>
+  </si>
+  <si>
+    <t>Caxium</t>
+  </si>
+  <si>
+    <t>Aspirin</t>
+  </si>
+  <si>
+    <t>Astest</t>
+  </si>
+  <si>
+    <t>Hop</t>
+  </si>
+  <si>
+    <t>Xoa</t>
+  </si>
+  <si>
+    <t>SoLuongTon</t>
   </si>
 </sst>
 </file>
@@ -439,11 +489,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -508,16 +561,16 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R4" t="s">
         <v>16</v>
@@ -528,16 +581,16 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R5" t="s">
         <v>25</v>
@@ -547,14 +600,17 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
         <v>26</v>
@@ -564,16 +620,25 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
       <c r="L7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -591,4 +656,242 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>1997</v>
+      </c>
+      <c r="E2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>1995</v>
+      </c>
+      <c r="E3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>1998</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>2500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>